--- a/Relatorio_Investimento.xlsx
+++ b/Relatorio_Investimento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luara\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BD85B7-9804-448C-99A2-A8740A8C7F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB7BEAC-DE9A-438C-B71F-C1840694522B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{485BB026-91AC-455D-B4DE-1F57362F155B}"/>
   </bookViews>
@@ -17,6 +17,16 @@
     <sheet name="Controle" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v2.0" hidden="1">Controle!$B$29:$B$35</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Controle!$C$28</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Controle!$C$29:$C$35</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Controle!$D$28</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">Controle!$D$29:$D$35</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">Controle!$B$29:$B$35</definedName>
+    <definedName name="_xlchart.v2.6" hidden="1">Controle!$C$28</definedName>
+    <definedName name="_xlchart.v2.7" hidden="1">Controle!$C$29:$C$35</definedName>
+    <definedName name="_xlchart.v2.8" hidden="1">Controle!$D$28</definedName>
+    <definedName name="_xlchart.v2.9" hidden="1">Controle!$D$29:$D$35</definedName>
     <definedName name="Aporte">Controle!$C$6</definedName>
     <definedName name="Dividendos_mensais">Controle!$C$10</definedName>
     <definedName name="Patrimonio">Controle!$C$9</definedName>
@@ -357,9 +367,9 @@
   </cellStyleXfs>
   <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -370,7 +380,7 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -381,7 +391,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -401,10 +411,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -435,7 +445,60 @@
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
     <cellStyle name="Ruim" xfId="3" builtinId="27"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -446,6 +509,706 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v2.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v2.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v2.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v2.4</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="funnel" uniqueId="{DB1BD93A-0B4C-45D0-A93A-8C96696DA405}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v2.1</cx:f>
+              <cx:v>PORCENTUAL SUGERIDO</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+        </cx:series>
+        <cx:series layoutId="funnel" hidden="1" uniqueId="{F9118B0B-DAC2-48E1-9211-24EB13E1233D}" formatIdx="1">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v2.3</cx:f>
+              <cx:v>VALORES</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="1"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="1">
+        <cx:catScaling gapWidth="0.0599999987"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="419">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1219199</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" Requires="cx2">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Gráfico 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADA549E6-1EF6-DEC6-1108-C7B986FD2AF5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5848350" y="5314950"/>
+              <a:ext cx="3486149" cy="2028825"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Este gráfico não está disponível na sua versão de Excel.
+Editar esta forma ou salvar esta pasta de trabalho em um formato de arquivo diferente quebrará o gráfico permanentemente.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FD4F595F-0260-40AC-9584-8DC8075DCE13}" name="Tabela1" displayName="Tabela1" ref="B28:D35" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B28:D35" xr:uid="{FD4F595F-0260-40AC-9584-8DC8075DCE13}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{DB01B832-B04E-4B0D-9110-97EABAEA28D2}" name="TIPO DE FII"/>
+    <tableColumn id="2" xr3:uid="{4206B4D6-B65D-4DAF-B710-E32D077896A3}" name="PORCENTUAL SUGERIDO" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{ABBB2849-63FB-4184-8705-5CE16F21A430}" name="VALORES" dataDxfId="1" dataCellStyle="Moeda"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1070,23 +1833,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F49DE39-30A9-4F24-8817-B8B7A94C0DF1}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F20:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
     <col min="6" max="6" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" hidden="1"/>
+    <col min="9" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25"/>
@@ -1310,7 +2073,7 @@
         <v>0.5</v>
       </c>
       <c r="D29" s="34">
-        <f>C29*$C$26</f>
+        <f t="shared" ref="D29:D34" si="0">C29*$C$26</f>
         <v>100</v>
       </c>
     </row>
@@ -1323,7 +2086,7 @@
         <v>0.1</v>
       </c>
       <c r="D30" s="34">
-        <f>C30*$C$26</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -1336,7 +2099,7 @@
         <v>0.05</v>
       </c>
       <c r="D31" s="34">
-        <f>C31*$C$26</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -1349,7 +2112,7 @@
         <v>0.05</v>
       </c>
       <c r="D32" s="34">
-        <f>C32*$C$26</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -1362,7 +2125,7 @@
         <v>0.2</v>
       </c>
       <c r="D33" s="34">
-        <f>C33*$C$26</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -1375,7 +2138,7 @@
         <v>0.1</v>
       </c>
       <c r="D34" s="34">
-        <f>C34*$C$26</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -1390,12 +2153,16 @@
     <row r="36" spans="2:4" x14ac:dyDescent="0.25"/>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25" xr:uid="{F7794747-3361-4582-B32A-461242449C32}">
       <formula1>"Conservador,Agressivo,Moderado"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>